--- a/FINAL/Classification Report.xlsx
+++ b/FINAL/Classification Report.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\K-NN\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72CD07D-7F30-4B9D-9220-21A4971DBCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0989E91-A0A0-49D3-B997-1533BA133F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{FCEC4F74-BB67-48A6-B31A-10D5B73B23A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{FCEC4F74-BB67-48A6-B31A-10D5B73B23A6}"/>
   </bookViews>
   <sheets>
     <sheet name="K Semua" sheetId="1" r:id="rId1"/>
     <sheet name="K Terbaik" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="21">
   <si>
     <t>Metode Normalisasi</t>
   </si>
@@ -93,12 +94,42 @@
   <si>
     <t>Decimal Scaling</t>
   </si>
+  <si>
+    <r>
+      <t>Macro Average Precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ini adalah rata-rata dari precision untuk setiap kelas (0 dan 1), tanpa memperhitungkan jumlah contoh di tiap kelas. Macro Average memberikan gambaran yang lebih seimbang tentang kinerja model untuk setiap kelas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Weighted Average Precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ini adalah rata-rata precision yang dihitung dengan memperhitungkan jumlah contoh di setiap kelas. Kelas dengan jumlah lebih banyak akan memiliki pengaruh lebih besar pada nilai rata-rata ini. Weighted Average lebih representatif jika distribusi kelas tidak seimbang.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +137,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,10 +315,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -279,6 +340,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,16 +351,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,9 +361,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,50 +746,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="4" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -728,23 +826,23 @@
       <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="13" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
@@ -809,7 +907,7 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B5" s="8"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
@@ -872,7 +970,7 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
@@ -935,7 +1033,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3">
         <v>7</v>
       </c>
@@ -998,7 +1096,7 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="8"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3">
         <v>9</v>
       </c>
@@ -1061,70 +1159,70 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3">
         <v>11</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="5">
         <v>0.76</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="5">
         <v>0.82</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="5">
         <v>0.66</v>
       </c>
-      <c r="G9" s="14">
-        <v>0.74</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="G9" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="H9" s="5">
         <v>0.76</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="5">
         <v>0.8</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="5">
         <v>0.69</v>
       </c>
-      <c r="K9" s="14">
-        <v>0.74</v>
-      </c>
-      <c r="L9" s="14">
+      <c r="K9" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="L9" s="5">
         <v>0.76</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="5">
         <v>0.81</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="5">
         <v>0.67</v>
       </c>
-      <c r="O9" s="14">
-        <v>0.74</v>
-      </c>
-      <c r="P9" s="14">
+      <c r="O9" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="P9" s="5">
         <v>0.76</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="5">
         <v>0.79800000000000004</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="5">
         <v>0.7802</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="5">
         <v>79</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="5">
         <v>20</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="5">
         <v>17</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="5">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2">
@@ -1189,7 +1287,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3">
         <v>3</v>
       </c>
@@ -1252,7 +1350,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3">
         <v>5</v>
       </c>
@@ -1315,7 +1413,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3">
         <v>7</v>
       </c>
@@ -1378,7 +1476,7 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -1441,70 +1539,70 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3">
         <v>11</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="5">
         <v>0.78</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="5">
         <v>0.82</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="5">
         <v>0.7</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="5">
         <v>0.76</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="5">
         <v>0.78</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="5">
         <v>0.84</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="5">
         <v>0.67</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="5">
         <v>0.76</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="5">
         <v>0.78</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="5">
         <v>0.83</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="5">
         <v>0.69</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="5">
         <v>0.76</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="5">
         <v>0.78</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="5">
         <v>0.83840000000000003</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="5">
         <v>0.80500000000000005</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="5">
         <v>83</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="5">
         <v>16</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="5">
         <v>18</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="5">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2">
@@ -1569,7 +1667,7 @@
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3">
         <v>3</v>
       </c>
@@ -1632,7 +1730,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B18" s="8"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3">
         <v>5</v>
       </c>
@@ -1695,7 +1793,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3">
         <v>7</v>
       </c>
@@ -1758,7 +1856,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B20" s="8"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="3">
         <v>9</v>
       </c>
@@ -1821,70 +1919,70 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3">
         <v>11</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="5">
         <v>0.77</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="5">
         <v>0.83</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="5">
         <v>0.67</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="5">
         <v>0.75</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="5">
         <v>0.78</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="5">
         <v>0.81</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="5">
         <v>0.71</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="5">
         <v>0.76</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="5">
         <v>0.77</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="5">
         <v>0.82</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="5">
         <v>0.69</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="5">
         <v>0.76</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="5">
         <v>0.77</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="5">
         <v>0.80810000000000004</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="5">
         <v>0.81289999999999996</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="5">
         <v>80</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T21" s="5">
         <v>19</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U21" s="5">
         <v>16</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2">
@@ -1949,7 +2047,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3">
         <v>3</v>
       </c>
@@ -2012,7 +2110,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B24" s="8"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="3">
         <v>5</v>
       </c>
@@ -2075,7 +2173,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3">
         <v>7</v>
       </c>
@@ -2138,7 +2236,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B26" s="8"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3">
         <v>9</v>
       </c>
@@ -2201,65 +2299,65 @@
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-      <c r="C27" s="14">
+      <c r="B27" s="12"/>
+      <c r="C27" s="5">
         <v>11</v>
       </c>
-      <c r="D27" s="14">
-        <v>0.73</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="D27" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="E27" s="5">
         <v>0.78</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="5">
         <v>0.62</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="5">
         <v>0.7</v>
       </c>
-      <c r="H27" s="14">
-        <v>0.73</v>
-      </c>
-      <c r="I27" s="14">
+      <c r="H27" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="I27" s="5">
         <v>0.8</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="5">
         <v>0.6</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="5">
         <v>0.7</v>
       </c>
-      <c r="L27" s="14">
-        <v>0.73</v>
-      </c>
-      <c r="M27" s="14">
-        <v>0.79</v>
-      </c>
-      <c r="N27" s="14">
+      <c r="L27" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="N27" s="5">
         <v>0.61</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="5">
         <v>0.7</v>
       </c>
-      <c r="P27" s="14">
-        <v>0.73</v>
-      </c>
-      <c r="Q27" s="14">
+      <c r="P27" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="Q27" s="5">
         <v>0.79800000000000004</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="5">
         <v>0.78739999999999999</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27" s="5">
         <v>79</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T27" s="5">
         <v>20</v>
       </c>
-      <c r="U27" s="14">
+      <c r="U27" s="5">
         <v>22</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V27" s="5">
         <v>33</v>
       </c>
     </row>
@@ -2288,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271A01A2-7BB2-40FB-8A86-CA7A9913BC18}">
   <dimension ref="B2:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2312,50 +2410,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="4" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B3" s="5"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -2392,26 +2490,26 @@
       <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="13" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>7</v>
       </c>
       <c r="D4" s="1">
@@ -2420,10 +2518,10 @@
       <c r="E4" s="1">
         <v>0.81</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="7">
         <v>0.61</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="7">
         <v>0.71</v>
       </c>
       <c r="H4" s="1">
@@ -2432,10 +2530,10 @@
       <c r="I4" s="1">
         <v>0.76</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="7">
         <v>0.67</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="7">
         <v>0.72</v>
       </c>
       <c r="L4" s="1">
@@ -2444,10 +2542,10 @@
       <c r="M4" s="1">
         <v>0.78</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="7">
         <v>0.64</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="7">
         <v>0.71</v>
       </c>
       <c r="P4" s="1">
@@ -2473,20 +2571,20 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="1">
         <v>0.81</v>
       </c>
       <c r="E5" s="1">
         <v>0.86</v>
       </c>
-      <c r="F5" s="19">
-        <v>0.73</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="F5" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="G5" s="7">
         <v>0.79</v>
       </c>
       <c r="H5" s="1">
@@ -2495,10 +2593,10 @@
       <c r="I5" s="1">
         <v>0.85</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="7">
         <v>0.75</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="7">
         <v>0.8</v>
       </c>
       <c r="L5" s="1">
@@ -2507,10 +2605,10 @@
       <c r="M5" s="1">
         <v>0.85</v>
       </c>
-      <c r="N5" s="19">
-        <v>0.74</v>
-      </c>
-      <c r="O5" s="19">
+      <c r="N5" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="O5" s="7">
         <v>0.8</v>
       </c>
       <c r="P5" s="1">
@@ -2536,20 +2634,20 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="1">
         <v>0.79</v>
       </c>
       <c r="E6" s="1">
         <v>0.84</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="7">
         <v>0.71</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="7">
         <v>0.77</v>
       </c>
       <c r="H6" s="1">
@@ -2558,10 +2656,10 @@
       <c r="I6" s="1">
         <v>0.84</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="7">
         <v>0.71</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="7">
         <v>0.77</v>
       </c>
       <c r="L6" s="1">
@@ -2570,10 +2668,10 @@
       <c r="M6" s="1">
         <v>0.84</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="7">
         <v>0.71</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="7">
         <v>0.77</v>
       </c>
       <c r="P6" s="1">
@@ -2599,20 +2697,20 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="1">
         <v>0.73</v>
       </c>
       <c r="E7" s="1">
         <v>0.8</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="7">
         <v>0.62</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="7">
         <v>0.71</v>
       </c>
       <c r="H7" s="1">
@@ -2621,10 +2719,10 @@
       <c r="I7" s="1">
         <v>0.78</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="7">
         <v>0.65</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="7">
         <v>0.72</v>
       </c>
       <c r="L7" s="1">
@@ -2633,10 +2731,10 @@
       <c r="M7" s="1">
         <v>0.79</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="7">
         <v>0.64</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="7">
         <v>0.71</v>
       </c>
       <c r="P7" s="1">
@@ -2661,11 +2759,370 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="29">
+        <v>0</v>
+      </c>
+      <c r="N11" s="29">
+        <v>1</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="32">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0.81</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.61</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0.74</v>
+      </c>
+      <c r="I12" s="33">
+        <v>0.76</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="L12" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="M12" s="33">
+        <v>0.78</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0.64</v>
+      </c>
+      <c r="O12" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="P12" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="R12" s="33">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="S12" s="33">
+        <v>75</v>
+      </c>
+      <c r="T12" s="33">
+        <v>24</v>
+      </c>
+      <c r="U12" s="33">
+        <v>18</v>
+      </c>
+      <c r="V12" s="33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B13" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="33">
+        <v>0.81</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0.86</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.79</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0.81</v>
+      </c>
+      <c r="I13" s="33">
+        <v>0.85</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="L13" s="33">
+        <v>0.81</v>
+      </c>
+      <c r="M13" s="33">
+        <v>0.85</v>
+      </c>
+      <c r="N13" s="20">
+        <v>0.74</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="P13" s="33">
+        <v>0.81</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="R13" s="33">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="S13" s="33">
+        <v>84</v>
+      </c>
+      <c r="T13" s="33">
+        <v>15</v>
+      </c>
+      <c r="U13" s="33">
+        <v>14</v>
+      </c>
+      <c r="V13" s="33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B14" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.84</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="H14" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="I14" s="33">
+        <v>0.84</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="L14" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="M14" s="33">
+        <v>0.84</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="P14" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="R14" s="33">
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="S14" s="33">
+        <v>83</v>
+      </c>
+      <c r="T14" s="33">
+        <v>16</v>
+      </c>
+      <c r="U14" s="33">
+        <v>16</v>
+      </c>
+      <c r="V14" s="33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B15" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0.74</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0.78</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="M15" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="N15" s="20">
+        <v>0.64</v>
+      </c>
+      <c r="O15" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="P15" s="33">
+        <v>0.74</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="R15" s="33">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="S15" s="33">
+        <v>77</v>
+      </c>
+      <c r="T15" s="33">
+        <v>22</v>
+      </c>
+      <c r="U15" s="33">
+        <v>19</v>
+      </c>
+      <c r="V15" s="33">
+        <v>36</v>
+      </c>
+    </row>
     <row r="16" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
@@ -2679,4 +3136,309 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779B36BB-A236-44E8-A879-109E27BA6F2E}">
+  <dimension ref="B2:P11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32">
+        <v>7</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0.74</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="H4" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="J4" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="K4" s="33">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="L4" s="33">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="M4" s="33">
+        <v>75</v>
+      </c>
+      <c r="N4" s="33">
+        <v>24</v>
+      </c>
+      <c r="O4" s="33">
+        <v>18</v>
+      </c>
+      <c r="P4" s="33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="33">
+        <v>0.81</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.79</v>
+      </c>
+      <c r="F5" s="33">
+        <v>0.81</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0.81</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="33">
+        <v>0.81</v>
+      </c>
+      <c r="K5" s="33">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="L5" s="33">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="M5" s="33">
+        <v>84</v>
+      </c>
+      <c r="N5" s="33">
+        <v>15</v>
+      </c>
+      <c r="O5" s="33">
+        <v>14</v>
+      </c>
+      <c r="P5" s="33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="L6" s="33">
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="M6" s="33">
+        <v>83</v>
+      </c>
+      <c r="N6" s="33">
+        <v>16</v>
+      </c>
+      <c r="O6" s="33">
+        <v>16</v>
+      </c>
+      <c r="P6" s="33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B7" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.74</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="J7" s="33">
+        <v>0.74</v>
+      </c>
+      <c r="K7" s="33">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="L7" s="33">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="M7" s="33">
+        <v>77</v>
+      </c>
+      <c r="N7" s="33">
+        <v>22</v>
+      </c>
+      <c r="O7" s="33">
+        <v>19</v>
+      </c>
+      <c r="P7" s="33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FINAL/Classification Report.xlsx
+++ b/FINAL/Classification Report.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\K-NN\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0989E91-A0A0-49D3-B997-1533BA133F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD355368-740C-40EB-AB7B-A43833961D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{FCEC4F74-BB67-48A6-B31A-10D5B73B23A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="5" xr2:uid="{FCEC4F74-BB67-48A6-B31A-10D5B73B23A6}"/>
   </bookViews>
   <sheets>
     <sheet name="K Semua" sheetId="1" r:id="rId1"/>
     <sheet name="K Terbaik" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="29">
   <si>
     <t>Metode Normalisasi</t>
   </si>
@@ -124,12 +127,36 @@
       <t>: Ini adalah rata-rata precision yang dihitung dengan memperhitungkan jumlah contoh di setiap kelas. Kelas dengan jumlah lebih banyak akan memiliki pengaruh lebih besar pada nilai rata-rata ini. Weighted Average lebih representatif jika distribusi kelas tidak seimbang.</t>
     </r>
   </si>
+  <si>
+    <t>Chi-Square</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Confusion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +174,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +356,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -361,10 +416,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,24 +440,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,7 +449,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,7 +769,7 @@
   <dimension ref="B2:V27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -746,50 +790,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="14" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="8" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -826,8 +870,8 @@
       <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="8"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="16"/>
       <c r="S3" s="4" t="s">
         <v>11</v>
       </c>
@@ -842,7 +886,7 @@
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
@@ -907,7 +951,7 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B5" s="12"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
@@ -970,7 +1014,7 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
@@ -1033,7 +1077,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="12"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="3">
         <v>7</v>
       </c>
@@ -1096,7 +1140,7 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="12"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="3">
         <v>9</v>
       </c>
@@ -1159,7 +1203,7 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="12"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="3">
         <v>11</v>
       </c>
@@ -1222,7 +1266,7 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2">
@@ -1287,7 +1331,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3">
         <v>3</v>
       </c>
@@ -1350,7 +1394,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B12" s="12"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="3">
         <v>5</v>
       </c>
@@ -1413,7 +1457,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="12"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3">
         <v>7</v>
       </c>
@@ -1476,7 +1520,7 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="12"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -1539,7 +1583,7 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B15" s="12"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3">
         <v>11</v>
       </c>
@@ -1602,7 +1646,7 @@
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2">
@@ -1667,7 +1711,7 @@
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B17" s="12"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="3">
         <v>3</v>
       </c>
@@ -1730,7 +1774,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B18" s="12"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="3">
         <v>5</v>
       </c>
@@ -1793,7 +1837,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B19" s="12"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="3">
         <v>7</v>
       </c>
@@ -1856,7 +1900,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B20" s="12"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="3">
         <v>9</v>
       </c>
@@ -1919,7 +1963,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B21" s="12"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="3">
         <v>11</v>
       </c>
@@ -1982,7 +2026,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2">
@@ -2047,7 +2091,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B23" s="12"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="3">
         <v>3</v>
       </c>
@@ -2110,7 +2154,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B24" s="12"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="3">
         <v>5</v>
       </c>
@@ -2173,7 +2217,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B25" s="12"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="3">
         <v>7</v>
       </c>
@@ -2236,7 +2280,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B26" s="12"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="3">
         <v>9</v>
       </c>
@@ -2299,7 +2343,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B27" s="12"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="5">
         <v>11</v>
       </c>
@@ -2410,50 +2454,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="14" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="8" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -2490,8 +2534,8 @@
       <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="8"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="16"/>
       <c r="S3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2509,7 +2553,7 @@
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="25">
         <v>7</v>
       </c>
       <c r="D4" s="1">
@@ -2574,7 +2618,7 @@
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="1">
         <v>0.81</v>
       </c>
@@ -2637,7 +2681,7 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="1">
         <v>0.79</v>
       </c>
@@ -2700,7 +2744,7 @@
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="1">
         <v>0.73</v>
       </c>
@@ -2760,352 +2804,352 @@
       </c>
     </row>
     <row r="10" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="22" t="s">
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="22" t="s">
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="21" t="s">
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="S10" s="26" t="s">
+      <c r="S10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="10">
         <v>0</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="10">
         <v>0</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="10">
         <v>1</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="O11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="30" t="s">
+      <c r="Q11" s="30"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="30" t="s">
+      <c r="T11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="30" t="s">
+      <c r="U11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="30" t="s">
+      <c r="V11" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="36">
         <v>7</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="9">
         <v>0.73</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="9">
         <v>0.81</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="8">
         <v>0.61</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="8">
         <v>0.71</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="9">
         <v>0.74</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="9">
         <v>0.76</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="8">
         <v>0.67</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="8">
         <v>0.72</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="9">
         <v>0.73</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="9">
         <v>0.78</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="8">
         <v>0.64</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="8">
         <v>0.71</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="9">
         <v>0.73</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="9">
         <v>0.75760000000000005</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="9">
         <v>0.77070000000000005</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="9">
         <v>75</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="9">
         <v>24</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="9">
         <v>18</v>
       </c>
-      <c r="V12" s="33">
+      <c r="V12" s="9">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="33">
+      <c r="C13" s="37"/>
+      <c r="D13" s="9">
         <v>0.81</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="9">
         <v>0.86</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="8">
         <v>0.73</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="8">
         <v>0.79</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="9">
         <v>0.81</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="9">
         <v>0.85</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="8">
         <v>0.75</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="8">
         <v>0.8</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="9">
         <v>0.81</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="9">
         <v>0.85</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="8">
         <v>0.74</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="8">
         <v>0.8</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="9">
         <v>0.81</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="9">
         <v>0.84850000000000003</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="9">
         <v>0.79500000000000004</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="9">
         <v>84</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="9">
         <v>15</v>
       </c>
-      <c r="U13" s="33">
+      <c r="U13" s="9">
         <v>14</v>
       </c>
-      <c r="V13" s="33">
+      <c r="V13" s="9">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="33">
+      <c r="C14" s="37"/>
+      <c r="D14" s="9">
         <v>0.79</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="9">
         <v>0.84</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="8">
         <v>0.71</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="8">
         <v>0.77</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="9">
         <v>0.79</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="9">
         <v>0.84</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="8">
         <v>0.71</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="8">
         <v>0.77</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="9">
         <v>0.79</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="9">
         <v>0.84</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="8">
         <v>0.71</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="8">
         <v>0.77</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="9">
         <v>0.79</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="9">
         <v>0.83840000000000003</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="9">
         <v>0.79690000000000005</v>
       </c>
-      <c r="S14" s="33">
+      <c r="S14" s="9">
         <v>83</v>
       </c>
-      <c r="T14" s="33">
+      <c r="T14" s="9">
         <v>16</v>
       </c>
-      <c r="U14" s="33">
+      <c r="U14" s="9">
         <v>16</v>
       </c>
-      <c r="V14" s="33">
+      <c r="V14" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="33">
+      <c r="C15" s="38"/>
+      <c r="D15" s="9">
         <v>0.73</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="9">
         <v>0.8</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="8">
         <v>0.62</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="8">
         <v>0.71</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="9">
         <v>0.74</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="9">
         <v>0.78</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="8">
         <v>0.65</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="8">
         <v>0.72</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="9">
         <v>0.73</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="9">
         <v>0.79</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="8">
         <v>0.64</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="8">
         <v>0.71</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="9">
         <v>0.74</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="9">
         <v>0.77780000000000005</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R15" s="9">
         <v>0.77280000000000004</v>
       </c>
-      <c r="S15" s="33">
+      <c r="S15" s="9">
         <v>77</v>
       </c>
-      <c r="T15" s="33">
+      <c r="T15" s="9">
         <v>22</v>
       </c>
-      <c r="U15" s="33">
+      <c r="U15" s="9">
         <v>19</v>
       </c>
-      <c r="V15" s="33">
+      <c r="V15" s="9">
         <v>36</v>
       </c>
     </row>
@@ -3140,294 +3184,341 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779B36BB-A236-44E8-A879-109E27BA6F2E}">
-  <dimension ref="B2:P11"/>
+  <dimension ref="B2:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="30" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="36">
         <v>7</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="9">
         <v>0.73</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="8">
         <v>0.71</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="9">
         <v>0.74</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="8">
         <v>0.72</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="9">
         <v>0.73</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="8">
         <v>0.71</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="9">
         <v>0.73</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="9">
         <v>0.75760000000000005</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="9">
         <v>0.77070000000000005</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="9">
         <v>75</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="9">
         <v>24</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="9">
         <v>18</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="9">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B5" s="31" t="s">
+      <c r="Q4" s="1">
+        <v>25.599399999999999</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33">
+      <c r="C5" s="37"/>
+      <c r="D5" s="9">
         <v>0.81</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="8">
         <v>0.79</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="9">
         <v>0.81</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="8">
         <v>0.8</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="9">
         <v>0.81</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="8">
         <v>0.8</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="9">
         <v>0.81</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="9">
         <v>0.84850000000000003</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="9">
         <v>0.79500000000000004</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="9">
         <v>84</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="9">
         <v>15</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="9">
         <v>14</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="9">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
+      <c r="Q5" s="1">
+        <v>51.363900000000001</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="33">
+      <c r="C6" s="37"/>
+      <c r="D6" s="9">
         <v>0.79</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="8">
         <v>0.77</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="9">
         <v>0.79</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="8">
         <v>0.77</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="9">
         <v>0.79</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="8">
         <v>0.77</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="9">
         <v>0.79</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="9">
         <v>0.83840000000000003</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="9">
         <v>0.79690000000000005</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="9">
         <v>83</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="9">
         <v>16</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="9">
         <v>16</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="9">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="31" t="s">
+      <c r="Q6" s="1">
+        <v>43.804400000000001</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="33">
+      <c r="C7" s="38"/>
+      <c r="D7" s="9">
         <v>0.73</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="8">
         <v>0.71</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="9">
         <v>0.74</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="8">
         <v>0.72</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="9">
         <v>0.73</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="8">
         <v>0.71</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="9">
         <v>0.74</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="9">
         <v>0.77780000000000005</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="9">
         <v>0.77280000000000004</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="9">
         <v>77</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="9">
         <v>22</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="9">
         <v>19</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="9">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="36" t="s">
+      <c r="Q7" s="1">
+        <v>26.335999999999999</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="39" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="36" t="s">
+      <c r="C9" s="39"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="2:18" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="39" t="s">
         <v>20</v>
       </c>
+      <c r="C11" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:P2"/>
@@ -3439,6 +3530,958 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA812A8-E6FF-40DD-B805-F9D6C7AC85C6}">
+  <dimension ref="B2:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="36">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="J4" s="9">
+        <v>75</v>
+      </c>
+      <c r="K4" s="9">
+        <v>24</v>
+      </c>
+      <c r="L4" s="9">
+        <v>18</v>
+      </c>
+      <c r="M4" s="9">
+        <v>37</v>
+      </c>
+      <c r="N4" s="1">
+        <v>25.599399999999999</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="J5" s="9">
+        <v>84</v>
+      </c>
+      <c r="K5" s="9">
+        <v>15</v>
+      </c>
+      <c r="L5" s="9">
+        <v>14</v>
+      </c>
+      <c r="M5" s="9">
+        <v>41</v>
+      </c>
+      <c r="N5" s="1">
+        <v>51.363900000000001</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="J6" s="9">
+        <v>83</v>
+      </c>
+      <c r="K6" s="9">
+        <v>16</v>
+      </c>
+      <c r="L6" s="9">
+        <v>16</v>
+      </c>
+      <c r="M6" s="9">
+        <v>39</v>
+      </c>
+      <c r="N6" s="1">
+        <v>43.804400000000001</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="J7" s="9">
+        <v>77</v>
+      </c>
+      <c r="K7" s="9">
+        <v>22</v>
+      </c>
+      <c r="L7" s="9">
+        <v>19</v>
+      </c>
+      <c r="M7" s="9">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1">
+        <v>26.335999999999999</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E085502F-E34A-4BD8-83DE-57F5BA924D2C}">
+  <dimension ref="B2:N7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.81640625" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="I4" s="9">
+        <v>75</v>
+      </c>
+      <c r="J4" s="9">
+        <v>24</v>
+      </c>
+      <c r="K4" s="9">
+        <v>18</v>
+      </c>
+      <c r="L4" s="9">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1">
+        <v>25.599399999999999</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="I5" s="9">
+        <v>84</v>
+      </c>
+      <c r="J5" s="9">
+        <v>15</v>
+      </c>
+      <c r="K5" s="9">
+        <v>14</v>
+      </c>
+      <c r="L5" s="9">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1">
+        <v>51.363900000000001</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="I6" s="9">
+        <v>83</v>
+      </c>
+      <c r="J6" s="9">
+        <v>16</v>
+      </c>
+      <c r="K6" s="9">
+        <v>16</v>
+      </c>
+      <c r="L6" s="9">
+        <v>39</v>
+      </c>
+      <c r="M6" s="1">
+        <v>43.804400000000001</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="I7" s="9">
+        <v>77</v>
+      </c>
+      <c r="J7" s="9">
+        <v>22</v>
+      </c>
+      <c r="K7" s="9">
+        <v>19</v>
+      </c>
+      <c r="L7" s="9">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1">
+        <v>26.335999999999999</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55075DF-61F7-4B63-A203-058C60F64BFA}">
+  <dimension ref="B2:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.75760000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.84850000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.83840000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.77780000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="29"/>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.77070000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.79690000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.77280000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="29"/>
+      <c r="C31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="9">
+        <v>75</v>
+      </c>
+      <c r="D32" s="9">
+        <v>24</v>
+      </c>
+      <c r="E32" s="9">
+        <v>18</v>
+      </c>
+      <c r="F32" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="9">
+        <v>84</v>
+      </c>
+      <c r="D33" s="9">
+        <v>15</v>
+      </c>
+      <c r="E33" s="9">
+        <v>14</v>
+      </c>
+      <c r="F33" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="9">
+        <v>83</v>
+      </c>
+      <c r="D34" s="9">
+        <v>16</v>
+      </c>
+      <c r="E34" s="9">
+        <v>16</v>
+      </c>
+      <c r="F34" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="9">
+        <v>77</v>
+      </c>
+      <c r="D35" s="9">
+        <v>22</v>
+      </c>
+      <c r="E35" s="9">
+        <v>19</v>
+      </c>
+      <c r="F35" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="29"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1">
+        <v>25.599399999999999</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1">
+        <v>51.363900000000001</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43.804400000000001</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1">
+        <v>26.335999999999999</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C16:C17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>